--- a/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template Teresa Conway1_3.xlsx
+++ b/ballots/2013-09 DSTU/QA/FHIR DSTU Review Template Teresa Conway1_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="24240" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="2295" yWindow="1215" windowWidth="24240" windowHeight="13350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="docuemnthandling" localSheetId="2">'Specification QA'!$C$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>Reviewer Name</t>
   </si>
@@ -383,6 +383,15 @@
   </si>
   <si>
     <t>If a bundle has a signature, the signature has a JSON property "signature", whose property value is an XML string that is a validXML signature element.</t>
+  </si>
+  <si>
+    <t>Grahame</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -918,13 +927,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26:F26"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +945,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -955,8 +964,11 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -975,8 +987,11 @@
       <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -992,8 +1007,11 @@
       <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -1012,8 +1030,11 @@
       <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -1029,8 +1050,11 @@
       <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -1046,8 +1070,11 @@
       <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
         <v>49</v>
@@ -1061,8 +1088,11 @@
       <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1081,8 +1111,11 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="G8" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1101,8 +1134,11 @@
       <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
@@ -1121,8 +1157,11 @@
       <c r="F10" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
@@ -1141,8 +1180,11 @@
       <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
@@ -1161,8 +1203,11 @@
       <c r="F12" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
@@ -1181,8 +1226,11 @@
       <c r="F13" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
@@ -1201,8 +1249,11 @@
       <c r="F14" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -1221,8 +1272,11 @@
       <c r="F15" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -1241,8 +1295,11 @@
       <c r="F16" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>72</v>
       </c>
@@ -1261,8 +1318,11 @@
       <c r="F17" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G17" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
@@ -1281,8 +1341,11 @@
       <c r="F18" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>76</v>
       </c>
@@ -1301,8 +1364,11 @@
       <c r="F19" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -1321,8 +1387,11 @@
       <c r="F20" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>76</v>
       </c>
@@ -1341,8 +1410,11 @@
       <c r="F21" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -1361,8 +1433,11 @@
       <c r="F22" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>92</v>
       </c>
@@ -1381,8 +1456,11 @@
       <c r="F23" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>92</v>
       </c>
@@ -1401,8 +1479,11 @@
       <c r="F24" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>99</v>
       </c>
@@ -1421,8 +1502,11 @@
       <c r="F25" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
@@ -1440,6 +1524,9 @@
       </c>
       <c r="F26" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
